--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>效果id</t>
   </si>
@@ -37,10 +37,25 @@
     <t>int</t>
   </si>
   <si>
+    <t>可逆转</t>
+  </si>
+  <si>
+    <t>持续时间 -1为永久</t>
+  </si>
+  <si>
     <t>attrs</t>
   </si>
   <si>
+    <t>reversible</t>
+  </si>
+  <si>
+    <t>last_time</t>
+  </si>
+  <si>
     <t>&lt;int, int&gt;</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>9:100;10:100;</t>
@@ -167,8 +182,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -179,18 +194,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,69 +226,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,45 +292,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +347,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,72 +521,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,96 +528,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,80 +538,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -618,8 +559,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1143,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1174,7 +1189,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>1</v>
+        <v>1000001</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1182,7 +1197,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>2</v>
+        <v>1000002</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1190,7 +1205,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>3</v>
+        <v>1000003</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -1209,7 +1224,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1255,7 +1270,7 @@
     </row>
     <row r="13" customFormat="1" spans="1:2">
       <c r="A13">
-        <v>1</v>
+        <v>2000001</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1263,7 +1278,7 @@
     </row>
     <row r="14" customFormat="1" spans="1:2">
       <c r="A14">
-        <v>2</v>
+        <v>2000002</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1271,7 +1286,7 @@
     </row>
     <row r="15" customFormat="1" spans="1:2">
       <c r="A15">
-        <v>3</v>
+        <v>2000003</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -1287,20 +1302,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="2" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -1308,194 +1323,230 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:2">
+    <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:2">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:4">
       <c r="A13">
+        <v>3000001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:4">
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
       <c r="A14">
-        <v>2</v>
+        <v>3000002</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:9">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:11">
       <c r="A15">
-        <v>3</v>
+        <v>3000003</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9">
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8">
-      <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="4:8">
-      <c r="D18" t="s">
+      <c r="K15" t="s">
         <v>18</v>
       </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="16" spans="6:11">
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="4:7">
-      <c r="D19" t="s">
+      <c r="K16" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="17" spans="6:10">
+      <c r="F17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" t="s">
+      <c r="J17" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="18" spans="6:10">
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7">
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" t="s">
-        <v>36</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7">
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7">
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="4:8">
-      <c r="D31" t="s">
+      <c r="H27" t="s">
         <v>42</v>
       </c>
-      <c r="H31" t="s">
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" t="s">
+      <c r="I29" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10">
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="hurt" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="attrs" sheetId="3" r:id="rId3"/>
     <sheet name="强制位移" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>效果id</t>
   </si>
@@ -25,10 +25,16 @@
     <t>伤害量</t>
   </si>
   <si>
+    <t>效果过滤id</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>filter_id</t>
   </si>
   <si>
     <t>int;key</t>
@@ -180,8 +186,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -194,6 +200,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -202,112 +336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -315,28 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,13 +353,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,169 +515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +544,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,25 +575,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +591,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,17 +644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,109 +664,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,22 +775,22 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,13 +1146,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -1163,28 +1169,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1195,20 +1210,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1000002</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1000003</v>
       </c>
       <c r="B15">
         <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1000004</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1000005</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1254,18 +1297,18 @@
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:2">
@@ -1304,8 +1347,8 @@
   <sheetPr/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1331,38 +1374,38 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:4">
@@ -1370,7 +1413,7 @@
         <v>3000001</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1384,7 +1427,7 @@
         <v>3000002</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1393,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:11">
@@ -1401,7 +1444,7 @@
         <v>3000003</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1410,143 +1453,143 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="6:11">
       <c r="F16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="6:9">
       <c r="F24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="6:9">
       <c r="F29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="6:9">
       <c r="F30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="6:10">
       <c r="F31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650"/>
+    <workbookView windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="hurt" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -202,6 +202,96 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,95 +306,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -320,6 +321,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -335,14 +343,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,11 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,26 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,11 +603,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,21 +644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -652,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1218,7 +1218,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1000002</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1000003</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1000004</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8550" activeTab="1"/>
+    <workbookView windowWidth="20760" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="hurt" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
     <t>伤害量</t>
   </si>
   <si>
+    <t>过滤配置</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>filter_id</t>
+  </si>
+  <si>
     <t>int;key</t>
   </si>
   <si>
@@ -70,16 +76,10 @@
     <t>[[int]]</t>
   </si>
   <si>
-    <t>9:100;10:100;</t>
-  </si>
-  <si>
-    <t>9:200;10:200;</t>
+    <t>9|100;10|100;</t>
   </si>
   <si>
     <t>EFP_None = 0;</t>
-  </si>
-  <si>
-    <t>9:300;10:300;</t>
   </si>
   <si>
     <t>EFP_HP = 1;</t>
@@ -192,9 +192,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -207,6 +207,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -221,6 +236,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -230,27 +281,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -280,8 +310,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,61 +349,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -359,6 +359,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,7 +389,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,91 +491,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,54 +540,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +550,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,6 +579,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,36 +621,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,13 +1152,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -1174,68 +1174,92 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1000001</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1000002</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>1000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1000003</v>
       </c>
       <c r="B15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>1000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1000004</v>
       </c>
       <c r="B16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>1000005</v>
       </c>
       <c r="B17">
         <v>50</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1250,8 +1274,8 @@
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1274,59 +1298,59 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -1334,13 +1358,13 @@
         <v>3000001</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1354,13 +1378,13 @@
         <v>3000002</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1369,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:13">
@@ -1377,13 +1401,13 @@
         <v>3000003</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1574,18 +1598,18 @@
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:2">

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20760" windowHeight="7710"/>
+    <workbookView windowWidth="28695" windowHeight="13650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="hurt" sheetId="1" r:id="rId1"/>
-    <sheet name="attrs" sheetId="3" r:id="rId2"/>
-    <sheet name="heal" sheetId="2" r:id="rId3"/>
-    <sheet name="强制位移" sheetId="4" r:id="rId4"/>
+    <sheet name="heal" sheetId="2" r:id="rId2"/>
+    <sheet name="attrs" sheetId="3" r:id="rId3"/>
+    <sheet name="effect_group" sheetId="5" r:id="rId4"/>
+    <sheet name="强制位移" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>效果id</t>
   </si>
@@ -185,6 +186,39 @@
   </si>
   <si>
     <t>EFP_COUNT = 32;</t>
+  </si>
+  <si>
+    <t>开始effects</t>
+  </si>
+  <si>
+    <t>结束effects</t>
+  </si>
+  <si>
+    <t>timeline effects</t>
+  </si>
+  <si>
+    <t>是否引导</t>
+  </si>
+  <si>
+    <t>能否取消引导</t>
+  </si>
+  <si>
+    <t>need_guide</t>
+  </si>
+  <si>
+    <t>can_cancel_guide</t>
+  </si>
+  <si>
+    <t>[int]</t>
+  </si>
+  <si>
+    <t>3000001;3000002</t>
+  </si>
+  <si>
+    <t>0|3000001;1|3000002;2|3000003</t>
+  </si>
+  <si>
+    <t>1000|3000001;2000|3000002;3000|3000003</t>
   </si>
 </sst>
 </file>
@@ -192,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -207,7 +241,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,87 +340,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -310,33 +348,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,43 +393,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,127 +513,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +584,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,17 +641,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,52 +679,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,16 +704,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,115 +722,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,8 +1188,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1270,299 +1304,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="5" width="36" customWidth="1"/>
-    <col min="6" max="7" width="25.875" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="27.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" spans="1:1">
-      <c r="A1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:6">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:6">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:6">
-      <c r="A13">
-        <v>3000001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>-1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:8">
-      <c r="A14">
-        <v>3000002</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:13">
-      <c r="A15">
-        <v>3000003</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="8:13">
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12">
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12">
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10">
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10">
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10">
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10">
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11">
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10">
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="8:10">
-      <c r="H26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="8:10">
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11">
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11">
-      <c r="H30" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="8:12">
-      <c r="H31" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="8:10">
-      <c r="H32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="H34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B15"/>
@@ -1643,7 +1384,450 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="5" width="36" customWidth="1"/>
+    <col min="6" max="7" width="25.875" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:1">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13">
+        <v>3000001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:8">
+      <c r="A14">
+        <v>3000002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:13">
+      <c r="A15">
+        <v>3000003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="8:13">
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10">
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11">
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12">
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10">
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="5" width="36" customWidth="1"/>
+    <col min="6" max="7" width="25.875" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:1">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13">
+        <v>4000001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14">
+        <v>4000002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15">
+        <v>4000003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>效果id</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>能否取消引导</t>
+  </si>
+  <si>
+    <t>begin_effect_ids</t>
+  </si>
+  <si>
+    <t>end_effect_ids</t>
+  </si>
+  <si>
+    <t>timeline_effect_ids</t>
   </si>
   <si>
     <t>need_guide</t>
@@ -226,10 +235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -240,8 +249,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,7 +348,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -264,45 +356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,10 +371,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,57 +386,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -393,187 +402,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +593,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,8 +653,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,21 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -651,39 +693,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -692,10 +701,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,133 +713,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1683,7 +1692,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1726,19 +1735,19 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
@@ -1746,7 +1755,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -1766,13 +1775,13 @@
         <v>4000001</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1786,13 +1795,13 @@
         <v>4000002</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1806,13 +1815,13 @@
         <v>4000003</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" activeTab="3"/>
+    <workbookView windowWidth="16095" windowHeight="26250" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="hurt" sheetId="1" r:id="rId1"/>
     <sheet name="heal" sheetId="2" r:id="rId2"/>
     <sheet name="attrs" sheetId="3" r:id="rId3"/>
     <sheet name="effect_group" sheetId="5" r:id="rId4"/>
-    <sheet name="强制位移" sheetId="4" r:id="rId5"/>
+    <sheet name="effect_script" sheetId="6" r:id="rId5"/>
+    <sheet name="强制位移" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>效果id</t>
   </si>
@@ -221,13 +222,25 @@
     <t>[int]</t>
   </si>
   <si>
-    <t>3000001;3000002</t>
+    <t>3000001;3000002;1000001;5000001</t>
   </si>
   <si>
     <t>0|3000001;1|3000002;2|3000003</t>
   </si>
   <si>
     <t>1000|3000001;2000|3000002;3000|3000003</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>EffectScript.Demo</t>
   </si>
 </sst>
 </file>
@@ -235,9 +248,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -249,31 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,45 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,14 +287,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +301,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +338,52 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -387,7 +400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,19 +415,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,97 +571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,61 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +606,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -615,22 +637,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,26 +681,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,133 +726,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,7 +1211,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1399,7 +1412,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1692,7 +1705,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1839,6 +1852,108 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:1">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1" spans="1:2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:2">
+      <c r="A13">
+        <v>5000001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:2">
+      <c r="A14">
+        <v>5000002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:2">
+      <c r="A15">
+        <v>5000003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:2">
+      <c r="A16">
+        <v>5000004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:2">
+      <c r="A17">
+        <v>5000005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="26250" activeTab="3"/>
+    <workbookView windowWidth="27150" windowHeight="13650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="hurt" sheetId="1" r:id="rId1"/>
@@ -234,13 +234,13 @@
     <t>参数</t>
   </si>
   <si>
-    <t>params</t>
+    <t>class_name</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>EffectScript.Demo</t>
+    <t>effect_script.effect_script_demo</t>
   </si>
 </sst>
 </file>
@@ -1704,8 +1704,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1854,8 +1854,8 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,47 +4,133 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" activeTab="4"/>
+    <workbookView windowWidth="19455" windowHeight="8550" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="hurt" sheetId="1" r:id="rId1"/>
-    <sheet name="heal" sheetId="2" r:id="rId2"/>
-    <sheet name="attrs" sheetId="3" r:id="rId3"/>
-    <sheet name="effect_group" sheetId="5" r:id="rId4"/>
+    <sheet name="effect_group" sheetId="5" r:id="rId1"/>
+    <sheet name="effect_searcher" sheetId="7" r:id="rId2"/>
+    <sheet name="hurt" sheetId="1" r:id="rId3"/>
+    <sheet name="attrs" sheetId="3" r:id="rId4"/>
     <sheet name="effect_script" sheetId="6" r:id="rId5"/>
-    <sheet name="强制位移" sheetId="4" r:id="rId6"/>
+    <sheet name="force_move" sheetId="4" r:id="rId6"/>
+    <sheet name="heal" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+pos 坐标
+owner effect释放者
+target：Effect目标</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>效果id</t>
   </si>
   <si>
+    <t>开始effects</t>
+  </si>
+  <si>
+    <t>结束effects</t>
+  </si>
+  <si>
+    <t>timeline effects</t>
+  </si>
+  <si>
+    <t>是否引导</t>
+  </si>
+  <si>
+    <t>能否取消引导</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>begin_effect_ids</t>
+  </si>
+  <si>
+    <t>end_effect_ids</t>
+  </si>
+  <si>
+    <t>timeline_effect_ids</t>
+  </si>
+  <si>
+    <t>need_guide</t>
+  </si>
+  <si>
+    <t>can_cancel_guide</t>
+  </si>
+  <si>
+    <t>int;key</t>
+  </si>
+  <si>
+    <t>[int]</t>
+  </si>
+  <si>
+    <t>[[int]]</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>3000001;3000002;1000001;5000001</t>
+  </si>
+  <si>
+    <t>0|3000001;1|3000002;2|3000003</t>
+  </si>
+  <si>
+    <t>1000|3000001;2000|3000002;3000|3000003</t>
+  </si>
+  <si>
+    <t>过滤配置</t>
+  </si>
+  <si>
+    <t>作用的effects</t>
+  </si>
+  <si>
+    <t>filter_id</t>
+  </si>
+  <si>
+    <t>effect_ids</t>
+  </si>
+  <si>
     <t>伤害量</t>
   </si>
   <si>
-    <t>过滤配置</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
-    <t>filter_id</t>
-  </si>
-  <si>
-    <t>int;key</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>基本属性</t>
   </si>
   <si>
@@ -75,9 +161,6 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>[[int]]</t>
-  </si>
-  <si>
     <t>9|100;10|100;</t>
   </si>
   <si>
@@ -189,46 +272,7 @@
     <t>EFP_COUNT = 32;</t>
   </si>
   <si>
-    <t>开始effects</t>
-  </si>
-  <si>
-    <t>结束effects</t>
-  </si>
-  <si>
-    <t>timeline effects</t>
-  </si>
-  <si>
-    <t>是否引导</t>
-  </si>
-  <si>
-    <t>能否取消引导</t>
-  </si>
-  <si>
-    <t>begin_effect_ids</t>
-  </si>
-  <si>
-    <t>end_effect_ids</t>
-  </si>
-  <si>
-    <t>timeline_effect_ids</t>
-  </si>
-  <si>
-    <t>need_guide</t>
-  </si>
-  <si>
-    <t>can_cancel_guide</t>
-  </si>
-  <si>
-    <t>[int]</t>
-  </si>
-  <si>
-    <t>3000001;3000002;1000001;5000001</t>
-  </si>
-  <si>
-    <t>0|3000001;1|3000002;2|3000003</t>
-  </si>
-  <si>
-    <t>1000|3000001;2000|3000002;3000|3000003</t>
+    <t>脚本名</t>
   </si>
   <si>
     <t>参数</t>
@@ -237,10 +281,64 @@
     <t>class_name</t>
   </si>
   <si>
+    <t>script_param</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>effect_script.effect_script_demo</t>
+  </si>
+  <si>
+    <t>备注：t时间毫秒 d距离 s速度。知道任意2个可以推导出第三个。</t>
+  </si>
+  <si>
+    <t>忽略地形</t>
+  </si>
+  <si>
+    <t>移动结果</t>
+  </si>
+  <si>
+    <t>锚点</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>ignore_terrian</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ts;3000;3</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>td;3000;6</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>sd;3;9</t>
+  </si>
+  <si>
+    <t>owner</t>
   </si>
 </sst>
 </file>
@@ -248,10 +346,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -259,6 +357,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,47 +406,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,13 +437,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -353,10 +453,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,17 +468,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,14 +498,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,18 +513,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,13 +651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,25 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,115 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,54 +704,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,8 +725,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,6 +771,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -714,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,133 +824,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,10 +1306,287 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B$1:B$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="5" width="36" customWidth="1"/>
+    <col min="6" max="7" width="25.875" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:1">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13">
+        <v>4000001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14">
+        <v>4000002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15">
+        <v>4000003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:1">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:3">
+      <c r="A13">
+        <v>7000001</v>
+      </c>
+      <c r="B13">
+        <v>1000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:3">
+      <c r="A14">
+        <v>7000002</v>
+      </c>
+      <c r="B14">
+        <v>1000002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:3">
+      <c r="A15">
+        <v>7000003</v>
+      </c>
+      <c r="B15">
+        <v>1000003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:3">
+      <c r="A16">
+        <v>7000004</v>
+      </c>
+      <c r="B16">
+        <v>1000004</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:3">
+      <c r="A17">
+        <v>7000005</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1235,32 +1610,32 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1325,94 +1700,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
-    <col min="4" max="4" width="26.625" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="27.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" spans="1:1">
-      <c r="A1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:2">
-      <c r="A13">
-        <v>2000001</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:2">
-      <c r="A14">
-        <v>2000002</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:2">
-      <c r="A15">
-        <v>2000003</v>
-      </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1435,59 +1729,59 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:6">
@@ -1495,13 +1789,13 @@
         <v>3000001</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1515,13 +1809,13 @@
         <v>3000002</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1530,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:13">
@@ -1538,13 +1832,13 @@
         <v>3000003</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1553,143 +1847,143 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="8:13">
       <c r="H16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="8:12">
       <c r="H17" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="8:12">
       <c r="H18" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="8:10">
       <c r="H20" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="8:10">
       <c r="H21" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="8:10">
       <c r="H22" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="8:10">
       <c r="H23" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="8:11">
       <c r="H24" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="8:10">
       <c r="H25" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="8:10">
       <c r="H26" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="8:10">
       <c r="H27" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="8:11">
       <c r="H29" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="8:11">
       <c r="H30" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="8:12">
       <c r="H31" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="8:10">
       <c r="H32" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1699,166 +1993,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="5" width="36" customWidth="1"/>
-    <col min="6" max="7" width="25.875" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="27.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" spans="1:1">
-      <c r="A1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:6">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:6">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:6">
-      <c r="A13">
-        <v>4000001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:6">
-      <c r="A14">
-        <v>4000002</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:6">
-      <c r="A15">
-        <v>4000003</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -1881,68 +2025,92 @@
     <row r="7" customFormat="1"/>
     <row r="8" customFormat="1"/>
     <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1" spans="1:2">
+    <row r="10" customFormat="1" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:3">
       <c r="A13">
         <v>5000001</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:3">
       <c r="A14">
         <v>5000002</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:3">
       <c r="A15">
         <v>5000003</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:3">
       <c r="A16">
         <v>5000004</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:3">
       <c r="A17">
         <v>5000005</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1954,15 +2122,225 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:1">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1"/>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1" spans="3:3">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:5">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:5">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:5">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:5">
+      <c r="A13">
+        <v>6000001</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:5">
+      <c r="A14">
+        <v>6000002</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:5">
+      <c r="A15">
+        <v>6000003</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C$1:C$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:1">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:2">
+      <c r="A13">
+        <v>2000001</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:2">
+      <c r="A14">
+        <v>2000002</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:2">
+      <c r="A15">
+        <v>2000003</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8550" activeTab="1"/>
+    <workbookView windowWidth="26805" windowHeight="10950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="effect_group" sheetId="5" r:id="rId1"/>
@@ -346,38 +346,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -390,9 +367,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,14 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -423,46 +399,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,8 +418,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,7 +498,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,13 +513,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,31 +621,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,31 +645,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,97 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,6 +704,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,30 +732,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -763,10 +754,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -782,16 +771,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,6 +793,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -812,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,133 +824,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1309,7 +1309,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B$1:B$1048576"/>
+      <selection activeCell="D4" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1458,8 +1458,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1706,7 +1706,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1999,7 +1999,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C$1:C$1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2124,8 +2124,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26805" windowHeight="10950" activeTab="5"/>
+    <workbookView windowWidth="27765" windowHeight="13650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="effect_group" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>效果id</t>
   </si>
@@ -104,27 +104,33 @@
     <t>int</t>
   </si>
   <si>
+    <t>0|3000001;1|3000002;2|3000003|6000001</t>
+  </si>
+  <si>
+    <t>1000|3000001;2000|3000002;3000|3000003</t>
+  </si>
+  <si>
+    <t>0|3000001;1|3000002;2|3000003|6000002</t>
+  </si>
+  <si>
+    <t>0|3000001;1|3000002;2|3000003|6000003</t>
+  </si>
+  <si>
+    <t>过滤配置</t>
+  </si>
+  <si>
+    <t>作用的effects</t>
+  </si>
+  <si>
+    <t>filter_id</t>
+  </si>
+  <si>
+    <t>effect_ids</t>
+  </si>
+  <si>
     <t>3000001;3000002;1000001;5000001</t>
   </si>
   <si>
-    <t>0|3000001;1|3000002;2|3000003</t>
-  </si>
-  <si>
-    <t>1000|3000001;2000|3000002;3000|3000003</t>
-  </si>
-  <si>
-    <t>过滤配置</t>
-  </si>
-  <si>
-    <t>作用的effects</t>
-  </si>
-  <si>
-    <t>filter_id</t>
-  </si>
-  <si>
-    <t>effect_ids</t>
-  </si>
-  <si>
     <t>伤害量</t>
   </si>
   <si>
@@ -302,7 +308,7 @@
     <t>锚点</t>
   </si>
   <si>
-    <t>方向</t>
+    <t>角度（初始角度为锚点到target）</t>
   </si>
   <si>
     <t>ignore_terrian</t>
@@ -314,7 +320,7 @@
     <t>anchor</t>
   </si>
   <si>
-    <t>dir</t>
+    <t>angle</t>
   </si>
   <si>
     <t>bool</t>
@@ -326,19 +332,19 @@
     <t>ts;3000;3</t>
   </si>
   <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>td;3000;6</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>sd;3;9</t>
+  </si>
+  <si>
     <t>pos</t>
-  </si>
-  <si>
-    <t>td;3000;6</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>sd;3;9</t>
-  </si>
-  <si>
-    <t>owner</t>
   </si>
 </sst>
 </file>
@@ -346,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -361,15 +367,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,38 +417,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +448,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -450,24 +471,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,14 +496,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,6 +519,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -525,36 +555,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,19 +633,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,97 +681,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,6 +710,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -722,21 +746,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -748,15 +757,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,11 +785,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,133 +830,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1309,13 +1315,15 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D$1:D$1048576"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="5" width="36" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="47.25" customWidth="1"/>
+    <col min="4" max="5" width="36" customWidth="1"/>
     <col min="6" max="7" width="25.875" customWidth="1"/>
     <col min="8" max="8" width="25.25" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
@@ -1391,14 +1399,14 @@
       <c r="A13">
         <v>4000001</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>7000001</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1411,14 +1419,14 @@
       <c r="A14">
         <v>4000002</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14">
+        <v>7000002</v>
       </c>
       <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1431,14 +1439,14 @@
       <c r="A15">
         <v>4000003</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
+      <c r="B15">
+        <v>7000003</v>
       </c>
       <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1459,7 +1467,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1491,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:3">
@@ -1502,10 +1510,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:3">
@@ -1524,10 +1532,10 @@
         <v>7000001</v>
       </c>
       <c r="B13">
-        <v>1000001</v>
+        <v>1000004</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:3">
@@ -1535,10 +1543,10 @@
         <v>7000002</v>
       </c>
       <c r="B14">
-        <v>1000002</v>
+        <v>1000003</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:3">
@@ -1546,10 +1554,10 @@
         <v>7000003</v>
       </c>
       <c r="B15">
-        <v>1000003</v>
+        <v>1000002</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:3">
@@ -1557,10 +1565,10 @@
         <v>7000004</v>
       </c>
       <c r="B16">
-        <v>1000004</v>
+        <v>1000001</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:3">
@@ -1568,10 +1576,10 @@
         <v>7000005</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1000004</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1610,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1621,10 +1629,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1729,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
@@ -1749,19 +1757,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:6">
@@ -1789,13 +1797,13 @@
         <v>3000001</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1809,13 +1817,13 @@
         <v>3000002</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1824,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:13">
@@ -1832,13 +1840,13 @@
         <v>3000003</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1847,143 +1855,143 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="8:13">
       <c r="H16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="8:12">
       <c r="H17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="8:12">
       <c r="H18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="8:11">
       <c r="H19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="8:10">
       <c r="H20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="8:10">
       <c r="H21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="8:10">
       <c r="H22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="8:10">
       <c r="H23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="8:11">
       <c r="H24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="8:10">
       <c r="H25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="8:10">
       <c r="H26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="8:10">
       <c r="H27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="8:11">
       <c r="H29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="8:11">
       <c r="H30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="8:12">
       <c r="H31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="8:10">
       <c r="H32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2030,10 +2038,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:3">
@@ -2041,10 +2049,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:3">
@@ -2052,10 +2060,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:3">
@@ -2063,10 +2071,10 @@
         <v>5000001</v>
       </c>
       <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:3">
@@ -2074,10 +2082,10 @@
         <v>5000002</v>
       </c>
       <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:3">
@@ -2085,10 +2093,10 @@
         <v>5000003</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:3">
@@ -2096,10 +2104,10 @@
         <v>5000004</v>
       </c>
       <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:3">
@@ -2107,10 +2115,10 @@
         <v>5000005</v>
       </c>
       <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2124,8 +2132,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2153,7 +2161,7 @@
     <row r="8" customFormat="1"/>
     <row r="9" customFormat="1" spans="3:3">
       <c r="C9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:5">
@@ -2161,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:5">
@@ -2178,16 +2186,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:5">
@@ -2195,16 +2203,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:5">
@@ -2215,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2232,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E14">
         <v>180</v>
@@ -2249,10 +2257,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>90</v>
@@ -2270,8 +2278,8 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2295,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:2">
@@ -2303,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" activeTab="6"/>
+    <workbookView windowWidth="27765" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="effect_group" sheetId="5" r:id="rId1"/>
@@ -353,9 +353,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -366,6 +366,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -373,30 +402,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,14 +425,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -433,72 +487,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,6 +502,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -519,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,24 +710,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,15 +739,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,6 +775,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -818,145 +818,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1466,8 +1466,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1578,8 +1578,8 @@
       <c r="B17">
         <v>1000004</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
+      <c r="C17">
+        <v>1000001</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2278,7 +2278,7 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="effect_group" sheetId="5" r:id="rId1"/>
@@ -34,18 +34,15 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-pos 坐标
-owner effect释放者
-target：Effect目标</t>
+          <t>target_pos 技能目标位置
+target_unit 技能目标
+caster 技能释放者
+cast_pos 技能施放时位置
+effect_target_unit 效果目标
+effect_target_pos效果目标位置
+effect_dir 效果方向
+skill_dir 技能方向
+cast_face_dir 技能施放时su朝向</t>
         </r>
       </text>
     </comment>
@@ -54,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>效果id</t>
   </si>
@@ -332,32 +329,29 @@
     <t>ts;3000;3</t>
   </si>
   <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>td;3000;6</t>
   </si>
   <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>sd;3;9</t>
   </si>
   <si>
-    <t>pos</t>
+    <t>caster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_target_unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,345 +360,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -712,251 +388,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -965,57 +399,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1306,19 +693,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -1330,12 +717,12 @@
     <col min="10" max="10" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>4000001</v>
       </c>
@@ -1415,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4000002</v>
       </c>
@@ -1435,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4000003</v>
       </c>
@@ -1456,21 +843,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
@@ -1481,20 +867,12 @@
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1527,7 +905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>7000001</v>
       </c>
@@ -1538,7 +916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>7000002</v>
       </c>
@@ -1549,7 +927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>7000003</v>
       </c>
@@ -1560,7 +938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>7000004</v>
       </c>
@@ -1571,7 +949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>7000005</v>
       </c>
@@ -1583,21 +961,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -1608,12 +985,12 @@
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1635,7 +1012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1646,7 +1023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1000001</v>
       </c>
@@ -1657,7 +1034,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1000002</v>
       </c>
@@ -1668,7 +1045,7 @@
         <v>1000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1000003</v>
       </c>
@@ -1679,7 +1056,7 @@
         <v>1000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1000004</v>
       </c>
@@ -1690,7 +1067,7 @@
         <v>1000004</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1000005</v>
       </c>
@@ -1702,22 +1079,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="5" width="36" customWidth="1"/>
@@ -1727,12 +1103,12 @@
     <col min="10" max="10" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:6">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:6">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3000001</v>
       </c>
@@ -1812,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3000002</v>
       </c>
@@ -1835,7 +1211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3000003</v>
       </c>
@@ -1861,7 +1237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="8:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H16" t="s">
         <v>41</v>
       </c>
@@ -1869,7 +1245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="8:12">
+    <row r="17" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H17" t="s">
         <v>43</v>
       </c>
@@ -1877,7 +1253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="8:12">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H18" t="s">
         <v>45</v>
       </c>
@@ -1885,7 +1261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="8:11">
+    <row r="19" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H19" t="s">
         <v>47</v>
       </c>
@@ -1893,7 +1269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="8:10">
+    <row r="20" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
         <v>49</v>
       </c>
@@ -1901,7 +1277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="8:10">
+    <row r="21" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H21" t="s">
         <v>51</v>
       </c>
@@ -1909,7 +1285,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="8:10">
+    <row r="22" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H22" t="s">
         <v>53</v>
       </c>
@@ -1917,7 +1293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="8:10">
+    <row r="23" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H23" t="s">
         <v>55</v>
       </c>
@@ -1925,7 +1301,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="8:11">
+    <row r="24" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H24" t="s">
         <v>57</v>
       </c>
@@ -1933,7 +1309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="8:10">
+    <row r="25" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H25" t="s">
         <v>59</v>
       </c>
@@ -1941,7 +1317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="8:10">
+    <row r="26" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H26" t="s">
         <v>61</v>
       </c>
@@ -1949,7 +1325,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="8:10">
+    <row r="27" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H27" t="s">
         <v>63</v>
       </c>
@@ -1957,7 +1333,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="8:11">
+    <row r="29" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H29" t="s">
         <v>65</v>
       </c>
@@ -1965,7 +1341,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="8:11">
+    <row r="30" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H30" t="s">
         <v>67</v>
       </c>
@@ -1973,7 +1349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="8:12">
+    <row r="31" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H31" t="s">
         <v>69</v>
       </c>
@@ -1981,7 +1357,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="8:10">
+    <row r="32" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H32" t="s">
         <v>71</v>
       </c>
@@ -1989,28 +1365,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H34" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -2020,20 +1395,12 @@
     <col min="6" max="6" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +1411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2055,7 +1422,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2066,7 +1433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5000001</v>
       </c>
@@ -2077,7 +1444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5000002</v>
       </c>
@@ -2088,7 +1455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5000003</v>
       </c>
@@ -2099,7 +1466,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5000004</v>
       </c>
@@ -2110,7 +1477,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5000005</v>
       </c>
@@ -2122,21 +1489,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="4" width="36" customWidth="1"/>
@@ -2147,24 +1513,17 @@
     <col min="9" max="9" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1" spans="3:3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +1540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2198,7 +1557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2215,7 +1574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6000001</v>
       </c>
@@ -2226,13 +1585,13 @@
         <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6000002</v>
       </c>
@@ -2240,16 +1599,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>180</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6000003</v>
       </c>
@@ -2257,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>96</v>
@@ -2267,22 +1626,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -2293,12 +1651,12 @@
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +1664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +1672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2322,7 +1680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2000001</v>
       </c>
@@ -2330,7 +1688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2000002</v>
       </c>
@@ -2338,7 +1696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2000003</v>
       </c>
@@ -2347,8 +1705,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13650" activeTab="5"/>
+    <workbookView windowWidth="27765" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="effect_group" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>效果id</t>
   </si>
@@ -101,18 +101,12 @@
     <t>int</t>
   </si>
   <si>
-    <t>0|3000001;1|3000002;2|3000003|6000001</t>
+    <t>0|3000001;1|3000002;2|3000003</t>
   </si>
   <si>
     <t>1000|3000001;2000|3000002;3000|3000003</t>
   </si>
   <si>
-    <t>0|3000001;1|3000002;2|3000003|6000002</t>
-  </si>
-  <si>
-    <t>0|3000001;1|3000002;2|3000003|6000003</t>
-  </si>
-  <si>
     <t>过滤配置</t>
   </si>
   <si>
@@ -326,32 +320,35 @@
     <t>float</t>
   </si>
   <si>
-    <t>ts;3000;3</t>
-  </si>
-  <si>
-    <t>td;3000;6</t>
+    <t>ts;3;3</t>
+  </si>
+  <si>
+    <t>target_pos</t>
+  </si>
+  <si>
+    <t>td;3;6</t>
+  </si>
+  <si>
+    <t>target_unit</t>
   </si>
   <si>
     <t>sd;3;9</t>
   </si>
   <si>
-    <t>caster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_unit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>effect_target_unit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,27 +357,345 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -388,9 +703,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -399,10 +956,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -693,19 +1297,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -717,12 +1321,12 @@
     <col min="10" max="10" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -742,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -762,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -782,7 +1386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>4000001</v>
       </c>
@@ -802,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>4000002</v>
       </c>
@@ -810,7 +1414,7 @@
         <v>7000002</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -822,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>4000003</v>
       </c>
@@ -830,7 +1434,7 @@
         <v>7000003</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -843,20 +1447,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
@@ -867,34 +1472,34 @@
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -905,51 +1510,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>7000001</v>
       </c>
       <c r="B13">
-        <v>1000004</v>
+        <v>1000001</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>7000002</v>
       </c>
       <c r="B14">
-        <v>1000003</v>
+        <v>1000002</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>7000003</v>
       </c>
       <c r="B15">
-        <v>1000002</v>
+        <v>1000003</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>7000004</v>
       </c>
       <c r="B16">
-        <v>1000001</v>
+        <v>1000004</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>7000005</v>
       </c>
@@ -957,24 +1562,25 @@
         <v>1000004</v>
       </c>
       <c r="C17">
-        <v>1000001</v>
+        <v>6000001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -985,34 +1591,34 @@
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1023,7 +1629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1000001</v>
       </c>
@@ -1034,7 +1640,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1000002</v>
       </c>
@@ -1045,7 +1651,7 @@
         <v>1000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1000003</v>
       </c>
@@ -1056,7 +1662,7 @@
         <v>1000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1000004</v>
       </c>
@@ -1067,7 +1673,7 @@
         <v>1000004</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>1000005</v>
       </c>
@@ -1079,21 +1685,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="5" width="36" customWidth="1"/>
@@ -1103,52 +1710,52 @@
     <col min="10" max="10" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1168,18 +1775,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>3000001</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1188,18 +1795,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>3000002</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1208,21 +1815,21 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>3000003</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1231,161 +1838,162 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="8:13">
+      <c r="H16" t="s">
         <v>39</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H16" t="s">
+    <row r="17" spans="8:12">
+      <c r="H17" t="s">
         <v>41</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H17" t="s">
+    <row r="18" spans="8:12">
+      <c r="H18" t="s">
         <v>43</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H18" t="s">
+    <row r="19" spans="8:11">
+      <c r="H19" t="s">
         <v>45</v>
       </c>
-      <c r="L18" t="s">
+      <c r="K19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H19" t="s">
+    <row r="20" spans="8:10">
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H20" t="s">
+    <row r="21" spans="8:10">
+      <c r="H21" t="s">
         <v>49</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H21" t="s">
+    <row r="22" spans="8:10">
+      <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H22" t="s">
+    <row r="23" spans="8:10">
+      <c r="H23" t="s">
         <v>53</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H23" t="s">
+    <row r="24" spans="8:11">
+      <c r="H24" t="s">
         <v>55</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H24" t="s">
+    <row r="25" spans="8:10">
+      <c r="H25" t="s">
         <v>57</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H25" t="s">
+    <row r="26" spans="8:10">
+      <c r="H26" t="s">
         <v>59</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H26" t="s">
+    <row r="27" spans="8:10">
+      <c r="H27" t="s">
         <v>61</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H27" t="s">
+    <row r="29" spans="8:11">
+      <c r="H29" t="s">
         <v>63</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H29" t="s">
+    <row r="30" spans="8:11">
+      <c r="H30" t="s">
         <v>65</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H30" t="s">
+    <row r="31" spans="8:12">
+      <c r="H31" t="s">
         <v>67</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H31" t="s">
+    <row r="32" spans="8:10">
+      <c r="H32" t="s">
         <v>69</v>
       </c>
-      <c r="L31" t="s">
+      <c r="J32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="8:12" x14ac:dyDescent="0.15">
-      <c r="H32" t="s">
+    <row r="34" spans="8:8">
+      <c r="H34" t="s">
         <v>71</v>
       </c>
-      <c r="J32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H34" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -1395,114 +2003,115 @@
     <col min="6" max="6" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>5000001</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>5000002</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>5000003</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>5000004</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>5000005</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="4" width="36" customWidth="1"/>
@@ -1513,68 +2122,68 @@
     <col min="9" max="9" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>6000001</v>
       </c>
@@ -1582,16 +2191,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>6000002</v>
       </c>
@@ -1599,16 +2208,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
         <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
       </c>
       <c r="E14">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>6000003</v>
       </c>
@@ -1619,28 +2228,29 @@
         <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -1651,28 +2261,28 @@
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1680,7 +2290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>2000001</v>
       </c>
@@ -1688,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>2000002</v>
       </c>
@@ -1696,7 +2306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>2000003</v>
       </c>
@@ -1705,8 +2315,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="13230" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="effect_group" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>效果id</t>
   </si>
@@ -278,13 +278,37 @@
     <t>class_name</t>
   </si>
   <si>
-    <t>script_param</t>
+    <t>str_param</t>
+  </si>
+  <si>
+    <t>json_param</t>
+  </si>
+  <si>
+    <t>int_param</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
     <t>effect_script.effect_script_demo</t>
+  </si>
+  <si>
+    <t>str_1</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>str_2</t>
+  </si>
+  <si>
+    <t>str_3</t>
+  </si>
+  <si>
+    <t>str_4</t>
+  </si>
+  <si>
+    <t>str_5</t>
   </si>
   <si>
     <t>备注：t时间毫秒 d距离 s速度。知道任意2个可以推导出第三个。</t>
@@ -343,10 +367,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -357,29 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -387,16 +388,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,16 +411,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,9 +432,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,49 +503,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -510,187 +534,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,41 +725,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -769,6 +758,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -784,20 +811,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,10 +833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,133 +845,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,7 +1481,7 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1987,13 +2011,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -2008,7 +2032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2018,8 +2042,14 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2029,71 +2059,113 @@
       <c r="C11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>5000001</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>5000002</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>5000003</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>5000004</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>5000005</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2201,7 @@
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2137,16 +2209,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2154,16 +2226,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2171,16 +2243,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2191,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2208,10 +2280,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>180</v>
@@ -2225,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>90</v>

--- a/Data/Config/excel/effect/effects.xlsx
+++ b/Data/Config/excel/effect/effects.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13230" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13230" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="effect_group" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
   <si>
     <t>效果id</t>
   </si>
@@ -290,9 +290,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>effect_script.effect_script_demo</t>
-  </si>
-  <si>
     <t>str_1</t>
   </si>
   <si>
@@ -360,19 +357,17 @@
   </si>
   <si>
     <t>effect_target_unit</t>
+  </si>
+  <si>
+    <t>effect_script.effect_demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,345 +376,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -727,251 +404,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,57 +415,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1321,19 +709,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -1345,12 +733,12 @@
     <col min="10" max="10" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>4000001</v>
       </c>
@@ -1430,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4000002</v>
       </c>
@@ -1450,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4000003</v>
       </c>
@@ -1471,21 +859,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
@@ -1496,12 +883,12 @@
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1523,7 +910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>7000001</v>
       </c>
@@ -1545,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>7000002</v>
       </c>
@@ -1556,7 +943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>7000003</v>
       </c>
@@ -1567,7 +954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>7000004</v>
       </c>
@@ -1578,7 +965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>7000005</v>
       </c>
@@ -1590,21 +977,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -1615,12 +1001,12 @@
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1642,7 +1028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1000001</v>
       </c>
@@ -1664,7 +1050,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1000002</v>
       </c>
@@ -1675,7 +1061,7 @@
         <v>1000002</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1000003</v>
       </c>
@@ -1686,7 +1072,7 @@
         <v>1000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1000004</v>
       </c>
@@ -1697,7 +1083,7 @@
         <v>1000004</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1000005</v>
       </c>
@@ -1709,22 +1095,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="5" width="36" customWidth="1"/>
@@ -1734,12 +1119,12 @@
     <col min="10" max="10" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1779,7 +1164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1799,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3000001</v>
       </c>
@@ -1819,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3000002</v>
       </c>
@@ -1842,7 +1227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3000003</v>
       </c>
@@ -1868,7 +1253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="8:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H16" t="s">
         <v>39</v>
       </c>
@@ -1876,7 +1261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="8:12">
+    <row r="17" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H17" t="s">
         <v>41</v>
       </c>
@@ -1884,7 +1269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="8:12">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H18" t="s">
         <v>43</v>
       </c>
@@ -1892,7 +1277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="8:11">
+    <row r="19" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H19" t="s">
         <v>45</v>
       </c>
@@ -1900,7 +1285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="8:10">
+    <row r="20" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
         <v>47</v>
       </c>
@@ -1908,7 +1293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="8:10">
+    <row r="21" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H21" t="s">
         <v>49</v>
       </c>
@@ -1916,7 +1301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="8:10">
+    <row r="22" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H22" t="s">
         <v>51</v>
       </c>
@@ -1924,7 +1309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="8:10">
+    <row r="23" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H23" t="s">
         <v>53</v>
       </c>
@@ -1932,7 +1317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="8:11">
+    <row r="24" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H24" t="s">
         <v>55</v>
       </c>
@@ -1940,7 +1325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="8:10">
+    <row r="25" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H25" t="s">
         <v>57</v>
       </c>
@@ -1948,7 +1333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="8:10">
+    <row r="26" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H26" t="s">
         <v>59</v>
       </c>
@@ -1956,7 +1341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="8:10">
+    <row r="27" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H27" t="s">
         <v>61</v>
       </c>
@@ -1964,7 +1349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="8:11">
+    <row r="29" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H29" t="s">
         <v>63</v>
       </c>
@@ -1972,7 +1357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="8:11">
+    <row r="30" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H30" t="s">
         <v>65</v>
       </c>
@@ -1980,7 +1365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="8:12">
+    <row r="31" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H31" t="s">
         <v>67</v>
       </c>
@@ -1988,7 +1373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="8:10">
+    <row r="32" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H32" t="s">
         <v>69</v>
       </c>
@@ -1996,28 +1381,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="8:8">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H34" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -2027,12 +1411,12 @@
     <col min="6" max="6" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +1433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +1450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2083,107 +1467,106 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5000001</v>
       </c>
       <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5000002</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5000003</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5000004</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5000005</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="4" width="36" customWidth="1"/>
@@ -2194,56 +1577,56 @@
     <col min="9" max="9" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
         <v>91</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>93</v>
       </c>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>78</v>
@@ -2252,10 +1635,10 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6000001</v>
       </c>
@@ -2263,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
         <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6000002</v>
       </c>
@@ -2280,16 +1663,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
         <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
       </c>
       <c r="E14">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6000003</v>
       </c>
@@ -2297,32 +1680,31 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
         <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
       </c>
       <c r="E15">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
@@ -2333,12 +1715,12 @@
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +1728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2354,7 +1736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +1744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2000001</v>
       </c>
@@ -2370,7 +1752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2000002</v>
       </c>
@@ -2378,7 +1760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2000003</v>
       </c>
@@ -2387,8 +1769,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>